--- a/Figure Generating/expression ratio table.xlsx
+++ b/Figure Generating/expression ratio table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C18233-B587-43D8-A4FA-65F895A951FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC8F42-E2E2-4BA7-BE0F-D47611E8A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E6DCCCD-578B-4DD7-A685-9E03962ACB78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Median Expression" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>SRF</t>
   </si>
@@ -65,6 +66,15 @@
   </si>
   <si>
     <t>Mean transcript abundance (%RNA / %DNA)</t>
+  </si>
+  <si>
+    <t>Layer_RNA</t>
+  </si>
+  <si>
+    <t>Biofilm</t>
+  </si>
+  <si>
+    <t>Defense</t>
   </si>
 </sst>
 </file>
@@ -74,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +95,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FFBCBCBC"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -223,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,8 +283,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +611,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10162E08-0E8A-4959-AEAE-458762DDA2B6}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I5" s="21">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1.07</v>
+      </c>
+      <c r="L5">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.07</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="14"/>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.628</v>
+      </c>
+      <c r="L7">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="M7">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="20">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I9" s="21">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1.2</v>
+      </c>
+      <c r="L9">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M9">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D6">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F60D81EE-C613-4E74-AA48-0A2D46485140}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E6">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84D3C919-B19C-4E39-A01F-931566938266}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3131199A-96ED-4BC8-8073-513E27532E89}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F60D81EE-C613-4E74-AA48-0A2D46485140}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D4:D6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84D3C919-B19C-4E39-A01F-931566938266}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4:E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3131199A-96ED-4BC8-8073-513E27532E89}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F4:F6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD1B694-118E-450D-A860-E3F24A5591D3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="333" zoomScaleNormal="333" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="333" zoomScaleNormal="333" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -599,20 +953,20 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="13"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
@@ -689,11 +1043,11 @@
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
